--- a/Prototypes/Barley/Observations/MCPD09_10Water.xlsx
+++ b/Prototypes/Barley/Observations/MCPD09_10Water.xlsx
@@ -39,30 +39,6 @@
   </si>
   <si>
     <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>[Soil].SoilWater.SW(1)</t>
-  </si>
-  <si>
-    <t>[Soil].SoilWater.SW(2)</t>
-  </si>
-  <si>
-    <t>[Soil].SoilWater.SW(3)</t>
-  </si>
-  <si>
-    <t>[Soil].SoilWater.SW(4)</t>
-  </si>
-  <si>
-    <t>[Soil].SoilWater.SW(5)</t>
-  </si>
-  <si>
-    <t>[Soil].SoilWater.SW(6)</t>
-  </si>
-  <si>
-    <t>[Soil].SoilWater.SW(7)</t>
-  </si>
-  <si>
-    <t>[Soil].SoilWater.SW(8)</t>
   </si>
   <si>
     <t>ProfileWater</t>
@@ -148,11 +124,38 @@
   <si>
     <t>MCPD09_10CultivarSherwood_N150_Irr</t>
   </si>
+  <si>
+    <t>Soil.SoilWater.SW(1)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(2)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(3)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(4)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(5)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(6)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(7)</t>
+  </si>
+  <si>
+    <t>Soil.SoilWater.SW(8)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,8 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,12 +471,13 @@
   <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B3" sqref="B3:B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -492,92 +497,92 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
         <v>40109</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>0.23550000000000001</v>
@@ -609,19 +614,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
         <v>40109</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0.24174999999999996</v>
@@ -653,19 +658,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
         <v>40109</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>0.24327514792899407</v>
@@ -697,19 +702,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
         <v>40109</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>0.24920694209636515</v>
@@ -741,19 +746,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
         <v>40109</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>0.25600000000000001</v>
@@ -785,19 +790,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
         <v>40109</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>0.24850000000000003</v>
@@ -829,19 +834,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
         <v>40109</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>0.23160329749679076</v>
@@ -873,19 +878,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
         <v>40109</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>0.22655876925545571</v>
@@ -917,19 +922,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
         <v>40109</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>0.26100000000000001</v>
@@ -961,19 +966,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
         <v>40109</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>0.24775</v>
@@ -1005,19 +1010,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
         <v>40109</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>0.23383088235294117</v>
@@ -1049,19 +1054,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
         <v>40109</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>0.23866911764705884</v>
@@ -1093,19 +1098,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
         <v>40109</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>0.23325000000000004</v>
@@ -1137,19 +1142,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
         <v>40109</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0.22425</v>
@@ -1181,19 +1186,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
         <v>40109</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>0.25600869173929519</v>
@@ -1225,19 +1230,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1">
         <v>40109</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>0.24340607452891935</v>
@@ -1269,19 +1274,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
         <v>40123</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>0.20299999999999996</v>
@@ -1313,19 +1318,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
         <v>40123</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>0.21249999999999999</v>
@@ -1357,19 +1362,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
         <v>40123</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>0.22325000000000003</v>
@@ -1401,19 +1406,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
         <v>40123</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>0.22325</v>
@@ -1445,19 +1450,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
         <v>40123</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>0.23225000000000001</v>
@@ -1489,19 +1494,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
         <v>40123</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>0.21599999999999997</v>
@@ -1533,19 +1538,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
         <v>40123</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>0.21375</v>
@@ -1577,19 +1582,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
         <v>40123</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>0.21100000000000002</v>
@@ -1621,19 +1626,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
         <v>40123</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>0.22049999999999997</v>
@@ -1665,19 +1670,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
         <v>40123</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>0.20725000000000002</v>
@@ -1709,19 +1714,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
         <v>40123</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>0.19600000000000001</v>
@@ -1753,19 +1758,19 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
         <v>40123</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>0.22175</v>
@@ -1797,19 +1802,19 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1">
         <v>40123</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>0.20800000000000002</v>
@@ -1841,19 +1846,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
         <v>40123</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F32">
         <v>0.20074999999999998</v>
@@ -1885,19 +1890,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
         <v>40123</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <v>0.23250000000000004</v>
@@ -1929,19 +1934,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
         <v>40123</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F34">
         <v>0.2225</v>
@@ -1973,19 +1978,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
         <v>40127</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F35">
         <v>0.17550000000000004</v>
@@ -2017,19 +2022,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1">
         <v>40127</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>0.20550000000000002</v>
@@ -2061,19 +2066,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
         <v>40127</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>0.20699999999999999</v>
@@ -2105,19 +2110,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
         <v>40127</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>0.19699999999999998</v>
@@ -2149,19 +2154,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1">
         <v>40127</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>0.1925</v>
@@ -2193,19 +2198,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1">
         <v>40127</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F40">
         <v>0.1845</v>
@@ -2237,19 +2242,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1">
         <v>40127</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <v>0.18600000000000003</v>
@@ -2281,19 +2286,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
+        <v>31</v>
+      </c>
+      <c r="B42" s="1">
         <v>40127</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>0.21599999999999997</v>
@@ -2325,19 +2330,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1">
         <v>40133</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <v>0.15</v>
@@ -2369,19 +2374,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1">
         <v>40133</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F44">
         <v>0.217</v>
@@ -2413,19 +2418,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
         <v>40133</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F45">
         <v>0.17774999999999999</v>
@@ -2457,19 +2462,19 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1">
         <v>40133</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F46">
         <v>0.20225000000000001</v>
@@ -2501,19 +2506,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1">
         <v>40133</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F47">
         <v>0.16375000000000001</v>
@@ -2545,19 +2550,19 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1">
         <v>40133</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F48">
         <v>0.20574999999999999</v>
@@ -2589,19 +2594,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49">
+        <v>28</v>
+      </c>
+      <c r="B49" s="1">
         <v>40133</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <v>0.1565</v>
@@ -2633,19 +2638,19 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50">
+        <v>31</v>
+      </c>
+      <c r="B50" s="1">
         <v>40133</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>0.22325000000000003</v>
@@ -2677,19 +2682,19 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1">
         <v>40137</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F51">
         <v>0.126</v>
@@ -2721,19 +2726,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1">
         <v>40137</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <v>0.26724999999999999</v>
@@ -2765,19 +2770,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
         <v>40137</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>0.15525000000000003</v>
@@ -2809,19 +2814,19 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1">
         <v>40137</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <v>0.21575</v>
@@ -2853,19 +2858,19 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55">
+        <v>23</v>
+      </c>
+      <c r="B55" s="1">
         <v>40137</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F55">
         <v>0.14499999999999999</v>
@@ -2897,19 +2902,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56">
+        <v>26</v>
+      </c>
+      <c r="B56" s="1">
         <v>40137</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F56">
         <v>0.2515</v>
@@ -2941,19 +2946,19 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57">
+        <v>28</v>
+      </c>
+      <c r="B57" s="1">
         <v>40137</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <v>0.13375000000000001</v>
@@ -2985,19 +2990,19 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1">
         <v>40137</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F58">
         <v>0.26299999999999996</v>
@@ -3029,19 +3034,19 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1">
         <v>40141</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F59">
         <v>0.14849999999999999</v>
@@ -3073,19 +3078,19 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1">
         <v>40141</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>0.23274999999999998</v>
@@ -3117,19 +3122,19 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="B61" s="1">
         <v>40141</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F61">
         <v>0.17249999999999999</v>
@@ -3161,19 +3166,19 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="B62" s="1">
         <v>40141</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F62">
         <v>0.23125000000000001</v>
@@ -3205,19 +3210,19 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63">
+        <v>23</v>
+      </c>
+      <c r="B63" s="1">
         <v>40141</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0.17274999999999999</v>
@@ -3249,19 +3254,19 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64">
+        <v>26</v>
+      </c>
+      <c r="B64" s="1">
         <v>40141</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>0.23674999999999996</v>
@@ -3293,19 +3298,19 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="B65" s="1">
         <v>40141</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>0.158</v>
@@ -3337,19 +3342,19 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66">
+        <v>31</v>
+      </c>
+      <c r="B66" s="1">
         <v>40141</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>0.25324999999999998</v>
@@ -3381,19 +3386,19 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1">
         <v>40144</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F67">
         <v>0.12175000000000001</v>
@@ -3425,19 +3430,19 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="B68" s="1">
         <v>40144</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F68">
         <v>0.28175</v>
@@ -3469,19 +3474,19 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69">
+        <v>18</v>
+      </c>
+      <c r="B69" s="1">
         <v>40144</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F69">
         <v>0.13075000000000001</v>
@@ -3513,19 +3518,19 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70">
+        <v>21</v>
+      </c>
+      <c r="B70" s="1">
         <v>40144</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F70">
         <v>0.2545</v>
@@ -3557,19 +3562,19 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71">
+        <v>23</v>
+      </c>
+      <c r="B71" s="1">
         <v>40144</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <v>0.13324999999999998</v>
@@ -3601,19 +3606,19 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1">
         <v>40144</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F72">
         <v>0.26624999999999999</v>
@@ -3645,19 +3650,19 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73">
+        <v>28</v>
+      </c>
+      <c r="B73" s="1">
         <v>40144</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>0.122</v>
@@ -3689,19 +3694,19 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74">
+        <v>31</v>
+      </c>
+      <c r="B74" s="1">
         <v>40144</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F74">
         <v>0.29700000000000004</v>
@@ -3733,19 +3738,19 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="B75" s="1">
         <v>40151</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F75">
         <v>0.17949999999999999</v>
@@ -3777,19 +3782,19 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1">
         <v>40151</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F76">
         <v>0.16824999999999998</v>
@@ -3821,19 +3826,19 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1">
         <v>40151</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F77">
         <v>0.33649999999999997</v>
@@ -3865,19 +3870,19 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="B78" s="1">
         <v>40151</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F78">
         <v>0.34049999999999997</v>
@@ -3909,19 +3914,19 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="B79" s="1">
         <v>40151</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F79">
         <v>0.20149999999999998</v>
@@ -3953,19 +3958,19 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="B80" s="1">
         <v>40151</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F80">
         <v>0.20024999999999998</v>
@@ -3997,19 +4002,19 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="B81" s="1">
         <v>40151</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F81">
         <v>0.30475000000000002</v>
@@ -4041,19 +4046,19 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1">
         <v>40151</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F82">
         <v>0.28775000000000001</v>
@@ -4085,19 +4090,19 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83">
+        <v>23</v>
+      </c>
+      <c r="B83" s="1">
         <v>40151</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F83">
         <v>0.1905</v>
@@ -4129,19 +4134,19 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="B84" s="1">
         <v>40151</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F84">
         <v>0.16500000000000001</v>
@@ -4173,19 +4178,19 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85">
+        <v>26</v>
+      </c>
+      <c r="B85" s="1">
         <v>40151</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F85">
         <v>0.30375000000000002</v>
@@ -4217,19 +4222,19 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86">
+        <v>27</v>
+      </c>
+      <c r="B86" s="1">
         <v>40151</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F86">
         <v>0.308</v>
@@ -4261,19 +4266,19 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>36</v>
-      </c>
-      <c r="B87">
+        <v>28</v>
+      </c>
+      <c r="B87" s="1">
         <v>40151</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F87">
         <v>0.20749999999999999</v>
@@ -4305,19 +4310,19 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88">
+        <v>30</v>
+      </c>
+      <c r="B88" s="1">
         <v>40151</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F88">
         <v>0.17300000000000001</v>
@@ -4349,19 +4354,19 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89">
+        <v>31</v>
+      </c>
+      <c r="B89" s="1">
         <v>40151</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>0.33750000000000002</v>
@@ -4393,19 +4398,19 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90">
+        <v>32</v>
+      </c>
+      <c r="B90" s="1">
         <v>40151</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F90">
         <v>0.31024999999999997</v>
@@ -4437,19 +4442,19 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1">
         <v>40159</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F91">
         <v>0.11850000000000001</v>
@@ -4481,19 +4486,19 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1">
         <v>40159</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F92">
         <v>0.10550000000000001</v>
@@ -4525,19 +4530,19 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="B93" s="1">
         <v>40159</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F93">
         <v>0.29149999999999998</v>
@@ -4569,19 +4574,19 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="B94" s="1">
         <v>40159</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F94">
         <v>0.27524999999999999</v>
@@ -4613,19 +4618,19 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95">
+        <v>18</v>
+      </c>
+      <c r="B95" s="1">
         <v>40159</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F95">
         <v>0.11350000000000002</v>
@@ -4657,19 +4662,19 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="B96" s="1">
         <v>40159</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F96">
         <v>0.10375</v>
@@ -4701,19 +4706,19 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="B97" s="1">
         <v>40159</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F97">
         <v>0.23450000000000004</v>
@@ -4745,19 +4750,19 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98">
+        <v>22</v>
+      </c>
+      <c r="B98" s="1">
         <v>40159</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F98">
         <v>0.23649999999999999</v>
@@ -4789,19 +4794,19 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99">
+        <v>23</v>
+      </c>
+      <c r="B99" s="1">
         <v>40159</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F99">
         <v>0.11900000000000001</v>
@@ -4833,19 +4838,19 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>33</v>
-      </c>
-      <c r="B100">
+        <v>25</v>
+      </c>
+      <c r="B100" s="1">
         <v>40159</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F100">
         <v>9.6500000000000002E-2</v>
@@ -4877,19 +4882,19 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101">
+        <v>26</v>
+      </c>
+      <c r="B101" s="1">
         <v>40159</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F101">
         <v>0.24075000000000002</v>
@@ -4921,19 +4926,19 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102">
+        <v>27</v>
+      </c>
+      <c r="B102" s="1">
         <v>40159</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F102">
         <v>0.247</v>
@@ -4965,19 +4970,19 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>36</v>
-      </c>
-      <c r="B103">
+        <v>28</v>
+      </c>
+      <c r="B103" s="1">
         <v>40159</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F103">
         <v>0.12075</v>
@@ -5009,19 +5014,19 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104">
+        <v>30</v>
+      </c>
+      <c r="B104" s="1">
         <v>40159</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F104">
         <v>9.849999999999999E-2</v>
@@ -5053,19 +5058,19 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>39</v>
-      </c>
-      <c r="B105">
+        <v>31</v>
+      </c>
+      <c r="B105" s="1">
         <v>40159</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F105">
         <v>0.28225</v>
@@ -5097,19 +5102,19 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106">
+        <v>32</v>
+      </c>
+      <c r="B106" s="1">
         <v>40159</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F106">
         <v>0.25600000000000001</v>
@@ -5141,19 +5146,19 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>17</v>
-      </c>
-      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1">
         <v>40165</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F107">
         <v>0.12175000000000001</v>
@@ -5185,19 +5190,19 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="B108" s="1">
         <v>40165</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F108">
         <v>0.1085</v>
@@ -5229,19 +5234,19 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109">
+        <v>15</v>
+      </c>
+      <c r="B109" s="1">
         <v>40165</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F109">
         <v>0.24350000000000002</v>
@@ -5273,19 +5278,19 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>25</v>
-      </c>
-      <c r="B110">
+        <v>17</v>
+      </c>
+      <c r="B110" s="1">
         <v>40165</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F110">
         <v>0.21724999999999997</v>
@@ -5317,19 +5322,19 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>26</v>
-      </c>
-      <c r="B111">
+        <v>18</v>
+      </c>
+      <c r="B111" s="1">
         <v>40165</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F111">
         <v>0.13</v>
@@ -5361,19 +5366,19 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="B112" s="1">
         <v>40165</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F112">
         <v>0.11225</v>
@@ -5405,19 +5410,19 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="B113" s="1">
         <v>40165</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F113">
         <v>0.22175</v>
@@ -5449,19 +5454,19 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="B114" s="1">
         <v>40165</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F114">
         <v>0.19350000000000001</v>
@@ -5493,19 +5498,19 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>31</v>
-      </c>
-      <c r="B115">
+        <v>23</v>
+      </c>
+      <c r="B115" s="1">
         <v>40165</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F115">
         <v>0.13350000000000001</v>
@@ -5537,19 +5542,19 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116">
+        <v>25</v>
+      </c>
+      <c r="B116" s="1">
         <v>40165</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F116">
         <v>0.11024999999999999</v>
@@ -5581,19 +5586,19 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117">
+        <v>26</v>
+      </c>
+      <c r="B117" s="1">
         <v>40165</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F117">
         <v>0.21024999999999999</v>
@@ -5625,19 +5630,19 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B118">
+        <v>27</v>
+      </c>
+      <c r="B118" s="1">
         <v>40165</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F118">
         <v>0.188</v>
@@ -5669,19 +5674,19 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="B119" s="1">
         <v>40165</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F119">
         <v>0.12275</v>
@@ -5713,19 +5718,19 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>38</v>
-      </c>
-      <c r="B120">
+        <v>30</v>
+      </c>
+      <c r="B120" s="1">
         <v>40165</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F120">
         <v>0.10399999999999998</v>
@@ -5757,19 +5762,19 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>39</v>
-      </c>
-      <c r="B121">
+        <v>31</v>
+      </c>
+      <c r="B121" s="1">
         <v>40165</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F121">
         <v>0.24099999999999999</v>
@@ -5801,19 +5806,19 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>40</v>
-      </c>
-      <c r="B122">
+        <v>32</v>
+      </c>
+      <c r="B122" s="1">
         <v>40165</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F122">
         <v>0.20849999999999999</v>
@@ -5845,19 +5850,19 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>17</v>
-      </c>
-      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1">
         <v>40175</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F123">
         <v>9.7750000000000004E-2</v>
@@ -5889,19 +5894,19 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>21</v>
-      </c>
-      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="B124" s="1">
         <v>40175</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F124">
         <v>9.4E-2</v>
@@ -5933,19 +5938,19 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125">
+        <v>15</v>
+      </c>
+      <c r="B125" s="1">
         <v>40175</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F125">
         <v>0.24475000000000002</v>
@@ -5977,19 +5982,19 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>25</v>
-      </c>
-      <c r="B126">
+        <v>17</v>
+      </c>
+      <c r="B126" s="1">
         <v>40175</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F126">
         <v>0.21149999999999999</v>
@@ -6021,19 +6026,19 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="B127" s="1">
         <v>40175</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F127">
         <v>0.10925000000000001</v>
@@ -6065,19 +6070,19 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>28</v>
-      </c>
-      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="B128" s="1">
         <v>40175</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F128">
         <v>9.6750000000000003E-2</v>
@@ -6109,19 +6114,19 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129">
+        <v>21</v>
+      </c>
+      <c r="B129" s="1">
         <v>40175</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F129">
         <v>0.21975</v>
@@ -6153,19 +6158,19 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>30</v>
-      </c>
-      <c r="B130">
+        <v>22</v>
+      </c>
+      <c r="B130" s="1">
         <v>40175</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F130">
         <v>0.18725000000000003</v>
@@ -6197,19 +6202,19 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>31</v>
-      </c>
-      <c r="B131">
+        <v>23</v>
+      </c>
+      <c r="B131" s="1">
         <v>40175</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F131">
         <v>0.10050000000000001</v>
@@ -6241,19 +6246,19 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1">
         <v>40175</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F132">
         <v>8.8749999999999996E-2</v>
@@ -6285,19 +6290,19 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>34</v>
-      </c>
-      <c r="B133">
+        <v>26</v>
+      </c>
+      <c r="B133" s="1">
         <v>40175</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E133" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F133">
         <v>0.20775000000000002</v>
@@ -6329,19 +6334,19 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>35</v>
-      </c>
-      <c r="B134">
+        <v>27</v>
+      </c>
+      <c r="B134" s="1">
         <v>40175</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F134">
         <v>0.18975</v>
@@ -6373,19 +6378,19 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>36</v>
-      </c>
-      <c r="B135">
+        <v>28</v>
+      </c>
+      <c r="B135" s="1">
         <v>40175</v>
       </c>
       <c r="C135" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F135">
         <v>0.1</v>
@@ -6417,19 +6422,19 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>38</v>
-      </c>
-      <c r="B136">
+        <v>30</v>
+      </c>
+      <c r="B136" s="1">
         <v>40175</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F136">
         <v>8.3249999999999991E-2</v>
@@ -6461,19 +6466,19 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>39</v>
-      </c>
-      <c r="B137">
+        <v>31</v>
+      </c>
+      <c r="B137" s="1">
         <v>40175</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F137">
         <v>0.24100000000000002</v>
@@ -6505,19 +6510,19 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>40</v>
-      </c>
-      <c r="B138">
+        <v>32</v>
+      </c>
+      <c r="B138" s="1">
         <v>40175</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E138" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F138">
         <v>0.2165</v>
@@ -6549,19 +6554,19 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1">
         <v>40184</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F139">
         <v>7.3749999999999996E-2</v>
@@ -6593,19 +6598,19 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>21</v>
-      </c>
-      <c r="B140">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
         <v>40184</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F140">
         <v>7.4249999999999997E-2</v>
@@ -6637,19 +6642,19 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141">
+        <v>15</v>
+      </c>
+      <c r="B141" s="1">
         <v>40184</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F141">
         <v>0.28999999999999998</v>
@@ -6681,19 +6686,19 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>25</v>
-      </c>
-      <c r="B142">
+        <v>17</v>
+      </c>
+      <c r="B142" s="1">
         <v>40184</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F142">
         <v>0.26025000000000004</v>
@@ -6725,19 +6730,19 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>26</v>
-      </c>
-      <c r="B143">
+        <v>18</v>
+      </c>
+      <c r="B143" s="1">
         <v>40184</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F143">
         <v>7.6999999999999999E-2</v>
@@ -6769,19 +6774,19 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>28</v>
-      </c>
-      <c r="B144">
+        <v>20</v>
+      </c>
+      <c r="B144" s="1">
         <v>40184</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F144">
         <v>7.4749999999999997E-2</v>
@@ -6813,19 +6818,19 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>29</v>
-      </c>
-      <c r="B145">
+        <v>21</v>
+      </c>
+      <c r="B145" s="1">
         <v>40184</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F145">
         <v>0.23800000000000002</v>
@@ -6857,19 +6862,19 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>30</v>
-      </c>
-      <c r="B146">
+        <v>22</v>
+      </c>
+      <c r="B146" s="1">
         <v>40184</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F146">
         <v>0.21200000000000002</v>
@@ -6901,19 +6906,19 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>31</v>
-      </c>
-      <c r="B147">
+        <v>23</v>
+      </c>
+      <c r="B147" s="1">
         <v>40184</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F147">
         <v>7.6999999999999999E-2</v>
@@ -6945,19 +6950,19 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>33</v>
-      </c>
-      <c r="B148">
+        <v>25</v>
+      </c>
+      <c r="B148" s="1">
         <v>40184</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F148">
         <v>7.1750000000000008E-2</v>
@@ -6989,19 +6994,19 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149">
+        <v>26</v>
+      </c>
+      <c r="B149" s="1">
         <v>40184</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F149">
         <v>0.25675000000000003</v>
@@ -7033,19 +7038,19 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>35</v>
-      </c>
-      <c r="B150">
+        <v>27</v>
+      </c>
+      <c r="B150" s="1">
         <v>40184</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F150">
         <v>0.25950000000000001</v>
@@ -7077,19 +7082,19 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151">
+        <v>28</v>
+      </c>
+      <c r="B151" s="1">
         <v>40184</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F151">
         <v>7.85E-2</v>
@@ -7121,19 +7126,19 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>38</v>
-      </c>
-      <c r="B152">
+        <v>30</v>
+      </c>
+      <c r="B152" s="1">
         <v>40184</v>
       </c>
       <c r="C152" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F152">
         <v>6.1500000000000006E-2</v>
@@ -7165,19 +7170,19 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>39</v>
-      </c>
-      <c r="B153">
+        <v>31</v>
+      </c>
+      <c r="B153" s="1">
         <v>40184</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F153">
         <v>0.28025</v>
@@ -7209,19 +7214,19 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>40</v>
-      </c>
-      <c r="B154">
+        <v>32</v>
+      </c>
+      <c r="B154" s="1">
         <v>40184</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E154" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F154">
         <v>0.2525</v>
@@ -7253,19 +7258,19 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>17</v>
-      </c>
-      <c r="B155">
+        <v>9</v>
+      </c>
+      <c r="B155" s="1">
         <v>40196</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F155">
         <v>0.11975000000000001</v>
@@ -7297,19 +7302,19 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1">
         <v>40196</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F156">
         <v>0.13774999999999998</v>
@@ -7341,19 +7346,19 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157">
+        <v>15</v>
+      </c>
+      <c r="B157" s="1">
         <v>40196</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F157">
         <v>0.30499999999999999</v>
@@ -7385,19 +7390,19 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158">
+        <v>17</v>
+      </c>
+      <c r="B158" s="1">
         <v>40196</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F158">
         <v>0.27500000000000002</v>
@@ -7429,19 +7434,19 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159">
+        <v>18</v>
+      </c>
+      <c r="B159" s="1">
         <v>40196</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F159">
         <v>0.14824999999999999</v>
@@ -7473,19 +7478,19 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>28</v>
-      </c>
-      <c r="B160">
+        <v>20</v>
+      </c>
+      <c r="B160" s="1">
         <v>40196</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F160">
         <v>0.1215</v>
@@ -7517,19 +7522,19 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>29</v>
-      </c>
-      <c r="B161">
+        <v>21</v>
+      </c>
+      <c r="B161" s="1">
         <v>40196</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F161">
         <v>0.28649999999999998</v>
@@ -7561,19 +7566,19 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>30</v>
-      </c>
-      <c r="B162">
+        <v>22</v>
+      </c>
+      <c r="B162" s="1">
         <v>40196</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F162">
         <v>0.25775000000000003</v>
@@ -7605,19 +7610,19 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>31</v>
-      </c>
-      <c r="B163">
+        <v>23</v>
+      </c>
+      <c r="B163" s="1">
         <v>40196</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F163">
         <v>0.12725</v>
@@ -7649,19 +7654,19 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>33</v>
-      </c>
-      <c r="B164">
+        <v>25</v>
+      </c>
+      <c r="B164" s="1">
         <v>40196</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F164">
         <v>0.125</v>
@@ -7693,19 +7698,19 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>34</v>
-      </c>
-      <c r="B165">
+        <v>26</v>
+      </c>
+      <c r="B165" s="1">
         <v>40196</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F165">
         <v>0.27750000000000002</v>
@@ -7737,19 +7742,19 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>35</v>
-      </c>
-      <c r="B166">
+        <v>27</v>
+      </c>
+      <c r="B166" s="1">
         <v>40196</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F166">
         <v>0.254</v>
@@ -7781,19 +7786,19 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>36</v>
-      </c>
-      <c r="B167">
+        <v>28</v>
+      </c>
+      <c r="B167" s="1">
         <v>40196</v>
       </c>
       <c r="C167" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F167">
         <v>0.11349999999999999</v>
@@ -7825,19 +7830,19 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>38</v>
-      </c>
-      <c r="B168">
+        <v>30</v>
+      </c>
+      <c r="B168" s="1">
         <v>40196</v>
       </c>
       <c r="C168" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F168">
         <v>8.5749999999999993E-2</v>
@@ -7869,19 +7874,19 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>39</v>
-      </c>
-      <c r="B169">
+        <v>31</v>
+      </c>
+      <c r="B169" s="1">
         <v>40196</v>
       </c>
       <c r="C169" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F169">
         <v>0.31200000000000006</v>
@@ -7913,19 +7918,19 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>40</v>
-      </c>
-      <c r="B170">
+        <v>32</v>
+      </c>
+      <c r="B170" s="1">
         <v>40196</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F170">
         <v>0.28499999999999998</v>
@@ -7957,19 +7962,19 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1">
         <v>40206</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F171">
         <v>0.27699999999999997</v>
@@ -8001,19 +8006,19 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>25</v>
-      </c>
-      <c r="B172">
+        <v>17</v>
+      </c>
+      <c r="B172" s="1">
         <v>40206</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E172" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F172">
         <v>0.22949999999999998</v>
@@ -8045,19 +8050,19 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>29</v>
-      </c>
-      <c r="B173">
+        <v>21</v>
+      </c>
+      <c r="B173" s="1">
         <v>40206</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F173">
         <v>0.26950000000000002</v>
@@ -8089,19 +8094,19 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>30</v>
-      </c>
-      <c r="B174">
+        <v>22</v>
+      </c>
+      <c r="B174" s="1">
         <v>40206</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E174" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F174">
         <v>0.24525</v>
@@ -8133,19 +8138,19 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>34</v>
-      </c>
-      <c r="B175">
+        <v>26</v>
+      </c>
+      <c r="B175" s="1">
         <v>40206</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E175" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F175">
         <v>0.27299999999999996</v>
@@ -8177,19 +8182,19 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>35</v>
-      </c>
-      <c r="B176">
+        <v>27</v>
+      </c>
+      <c r="B176" s="1">
         <v>40206</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E176" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F176">
         <v>0.24024999999999999</v>
@@ -8221,19 +8226,19 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>39</v>
-      </c>
-      <c r="B177">
+        <v>31</v>
+      </c>
+      <c r="B177" s="1">
         <v>40206</v>
       </c>
       <c r="C177" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E177" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F177">
         <v>0.29875000000000002</v>
@@ -8265,19 +8270,19 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>40</v>
-      </c>
-      <c r="B178">
+        <v>32</v>
+      </c>
+      <c r="B178" s="1">
         <v>40206</v>
       </c>
       <c r="C178" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E178" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F178">
         <v>0.26424999999999998</v>
@@ -8309,19 +8314,19 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>17</v>
-      </c>
-      <c r="B179">
+        <v>9</v>
+      </c>
+      <c r="B179" s="1">
         <v>40219</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F179">
         <v>0.14650000000000002</v>
@@ -8353,19 +8358,19 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>21</v>
-      </c>
-      <c r="B180">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1">
         <v>40219</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F180">
         <v>0.16175</v>
@@ -8397,19 +8402,19 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>26</v>
-      </c>
-      <c r="B181">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1">
         <v>40219</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F181">
         <v>0.16274999999999998</v>
@@ -8441,19 +8446,19 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>28</v>
-      </c>
-      <c r="B182">
+        <v>20</v>
+      </c>
+      <c r="B182" s="1">
         <v>40219</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F182">
         <v>0.13950000000000001</v>
@@ -8485,19 +8490,19 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>31</v>
-      </c>
-      <c r="B183">
+        <v>23</v>
+      </c>
+      <c r="B183" s="1">
         <v>40219</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F183">
         <v>0.16325000000000003</v>
@@ -8529,19 +8534,19 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>33</v>
-      </c>
-      <c r="B184">
+        <v>25</v>
+      </c>
+      <c r="B184" s="1">
         <v>40219</v>
       </c>
       <c r="C184" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F184">
         <v>0.14800000000000002</v>
@@ -8573,19 +8578,19 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>36</v>
-      </c>
-      <c r="B185">
+        <v>28</v>
+      </c>
+      <c r="B185" s="1">
         <v>40219</v>
       </c>
       <c r="C185" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D185" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F185">
         <v>0.17024999999999998</v>
@@ -8617,19 +8622,19 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>38</v>
-      </c>
-      <c r="B186">
+        <v>30</v>
+      </c>
+      <c r="B186" s="1">
         <v>40219</v>
       </c>
       <c r="C186" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D186" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F186">
         <v>0.11650000000000001</v>
@@ -8661,19 +8666,19 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>23</v>
-      </c>
-      <c r="B187">
+        <v>15</v>
+      </c>
+      <c r="B187" s="1">
         <v>40232</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F187">
         <v>0.26425000000000004</v>
@@ -8705,19 +8710,19 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>25</v>
-      </c>
-      <c r="B188">
+        <v>17</v>
+      </c>
+      <c r="B188" s="1">
         <v>40232</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F188">
         <v>0.17675000000000002</v>
@@ -8749,19 +8754,19 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>29</v>
-      </c>
-      <c r="B189">
+        <v>21</v>
+      </c>
+      <c r="B189" s="1">
         <v>40232</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E189" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F189">
         <v>0.245</v>
@@ -8793,19 +8798,19 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>30</v>
-      </c>
-      <c r="B190">
+        <v>22</v>
+      </c>
+      <c r="B190" s="1">
         <v>40232</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E190" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F190">
         <v>0.19299999999999998</v>
@@ -8837,19 +8842,19 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>34</v>
-      </c>
-      <c r="B191">
+        <v>26</v>
+      </c>
+      <c r="B191" s="1">
         <v>40232</v>
       </c>
       <c r="C191" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F191">
         <v>0.24100000000000002</v>
@@ -8881,19 +8886,19 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>35</v>
-      </c>
-      <c r="B192">
+        <v>27</v>
+      </c>
+      <c r="B192" s="1">
         <v>40232</v>
       </c>
       <c r="C192" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F192">
         <v>0.18899999999999997</v>
@@ -8925,19 +8930,19 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>39</v>
-      </c>
-      <c r="B193">
+        <v>31</v>
+      </c>
+      <c r="B193" s="1">
         <v>40232</v>
       </c>
       <c r="C193" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F193">
         <v>0.26050000000000001</v>
@@ -8969,19 +8974,19 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>40</v>
-      </c>
-      <c r="B194">
+        <v>32</v>
+      </c>
+      <c r="B194" s="1">
         <v>40232</v>
       </c>
       <c r="C194" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D194" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E194" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F194">
         <v>0.218</v>
@@ -9013,5 +9018,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>